--- a/src/main/resources/caseconf/CashAccountQueryById/Case_CashAccountQueryById.xlsx
+++ b/src/main/resources/caseconf/CashAccountQueryById/Case_CashAccountQueryById.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/CashAccountQueryById/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="640" yWindow="-24580" windowWidth="35560" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="CashAccountQueryById" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,102 +145,92 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId缺失</t>
   </si>
   <si>
     <t>exceptSQL2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>selSQL2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询成功</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/cashAccount</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>selSQL</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>账户不存在</t>
-  </si>
-  <si>
-    <t>{
- "tenantId":"li",
- "accountId":"3333333321"
-}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -237,7 +238,7 @@
     "resMsg": "银行卡不存在",
     "successful": 0
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId为空</t>
@@ -247,7 +248,7 @@
  "tenantId":"",
  "accountId":"694492605174386688"
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -256,7 +257,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.queryByCardId(***.web.request.QueryBankCardRequest): [Field error in object 'queryBankCardRequest' on field 'tenantId': rejected value []; codes [NotEmpty.queryBankCardRequest.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryBankCardRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -266,7 +267,7 @@
  "tenantId":"li",
  "accountId":""
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -279,7 +280,7 @@
     <t>{
  "accountId":"694492605174386688"
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -296,37 +297,64 @@
     <t>{
  "tenantId":"li"
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CashAccountQueryById-001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashAccountQueryById-002</t>
+  </si>
+  <si>
+    <t>CashAccountQueryById-003</t>
+  </si>
+  <si>
+    <t>CashAccountQueryById-004</t>
+  </si>
+  <si>
+    <t>CashAccountQueryById-005</t>
+  </si>
+  <si>
+    <t>CashAccountQueryById-006</t>
+  </si>
+  <si>
+    <t>/queryById</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>CashAccountQueryById-002</t>
-  </si>
-  <si>
-    <t>CashAccountQueryById-003</t>
-  </si>
-  <si>
-    <t>CashAccountQueryById-004</t>
-  </si>
-  <si>
-    <t>CashAccountQueryById-005</t>
-  </si>
-  <si>
-    <t>CashAccountQueryById-006</t>
-  </si>
-  <si>
-    <t>/queryById</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>查询成功-单条信息</t>
+    <rPh sb="5" eb="6">
+      <t>dan'tiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId":"1001",
- "accountId":"700110538234470400"
+ "accountId":"699998561629069312"
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"1001",
+ "accountId":"3333333321"
+}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id = "1331";
+delete from user_request_serial where tenant_id = "1001";
+delete from cash_account where tenant_account_id ="0123" ;
+delete from cash_account_item where tenant_account_id = "0123";
+delete from user_basic_info where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001"</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -335,37 +363,41 @@
     "successful": 1,
     "data": [
         {
-            "accountId": 700110538234470400,
-            "tenantUserId": "000001",
+            "accountId": 699998561629069312,
+            "tenantUserId": "000113",
             "tenantId": "1001",
-            "tenantAccountId": "00001",
+            "tenantAccountId": "0123",
             "params": {
-                "ICBC": "6222888899313"
+                "phone": "18500000000"
             }
         }
     ]
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into cash_account_item (id,account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("48539","699998561629069312","1001","0123","phone","1**********","Njxh5lvLIbuMQzwXg/HXpw==","e26695662b631e45665acf6bd8214fa5","1","2020-04-15 15:04:22","2020-04-15 15:04:22");
+insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("699998561629069312","699222007535509504","000113","1001","0123","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVicVBJWFVtZ2c1RVljMGF5WFBQOXUrUm9mMmgwczhjQ2JBQUFBQUFBQUFBQUQzNmF6NjMwQ0xwZWVrRmM5cGdKSXBEaEJmdWc1aXF1ZENhdDhTdnFwcXAzWko1MngxVGNjOFJoYkM3YkZnejJOV1h0UUhmemxmYnhDeUI5OTBXTWxMNHV4bDhjSC9zUjBGejlIaXdETjU3SGxzcmcxNEk0QkNBUDVXNmVkMkFteDMwZU1VV1o5RzluNEFmeUhkRlNPMkZwTVBrUjEzMmxTa1VzVHd6elAyZWVjY1E5VXNldjFQUGFFQld0aExtSVdnR2lNTmpSeitTaGVTS3hxOXJEc0dObFd3R3l4RlhiRUpjU09mYmZWaFRMZm12dy9iQkxjWUF3TUttL0hCYjh1bWNIUWo2Y2xZdi9SV3Z5QnJYOC9reEh2N1I1T05jZmgrTWdySEZFUEJQbUxLV3ZXMlowTzdBUUdEaWQxNisrdURQV29zb29uSHI2YTF1YmlGYkNGcWMyMjlGbEhCOTBsSlFxWVBzNjVXc1pTYlRjQ3dYVVJNb3dzbWZZbkhqVFREQUZxY1oxMUpLbTVoK0lrVDlVdEFnbTh1WFAvS0grTC83aFkxWE1OOWhIZVo0UmhnakJQcjdObVVSaE02QWwwdFdodDVLUHQ1S0pZU3Q0TEFRQlhibjY3NGxwYWxKZz0=","success","2020-04-15 15:04:22","2020-04-15 15:04:22")
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,6 +537,13 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -549,67 +588,67 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -618,10 +657,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -633,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -642,7 +681,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -651,80 +690,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1010,34 +1071,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.9140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="1" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="54" style="8" customWidth="1"/>
     <col min="7" max="7" width="32" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="25.4140625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="65.9140625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="18.75" style="9" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="65.83203125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" style="9" customWidth="1"/>
     <col min="17" max="17" width="22.6640625" style="9" customWidth="1"/>
     <col min="18" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,10 +1139,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="50" t="s">
         <v>20</v>
-      </c>
-      <c r="O1" s="50" t="s">
-        <v>21</v>
       </c>
       <c r="P1" s="50" t="s">
         <v>16</v>
@@ -1090,137 +1151,135 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.5" customHeight="1">
+    <row r="2" spans="1:17" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>40</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="33" t="s">
-        <v>19</v>
+      <c r="F2" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M2" s="56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="48"/>
       <c r="O2" s="47"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
     </row>
-    <row r="3" spans="1:17" ht="208.5" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:17" s="62" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-    </row>
-    <row r="4" spans="1:17" ht="100" customHeight="1">
+      <c r="N3" s="64"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+    </row>
+    <row r="4" spans="1:17" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="33" t="s">
-        <v>19</v>
+      <c r="H4" t="s">
+        <v>18</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N4" s="45"/>
       <c r="O4" s="51"/>
     </row>
-    <row r="5" spans="1:17" ht="70">
+    <row r="5" spans="1:17" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="33" t="s">
-        <v>19</v>
+      <c r="H5" t="s">
+        <v>18</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="52"/>
     </row>
-    <row r="6" spans="1:17" ht="266">
+    <row r="6" spans="1:17" ht="285" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>15</v>
@@ -1229,53 +1288,53 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="33" t="s">
-        <v>19</v>
+      <c r="H6" t="s">
+        <v>18</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="52"/>
     </row>
-    <row r="7" spans="1:17" ht="70">
+    <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="33" t="s">
-        <v>19</v>
+      <c r="H7" t="s">
+        <v>18</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="52"/>
     </row>
-    <row r="8" spans="1:17" ht="17.5">
+    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="9"/>
@@ -1283,7 +1342,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="33"/>
+      <c r="H8"/>
       <c r="I8" s="46"/>
       <c r="J8" s="49"/>
       <c r="K8" s="47"/>
@@ -1291,7 +1350,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="52"/>
     </row>
-    <row r="9" spans="1:17" ht="17.5">
+    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="9"/>
@@ -1299,7 +1358,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="33"/>
+      <c r="H9"/>
       <c r="I9" s="46"/>
       <c r="J9" s="49"/>
       <c r="K9" s="9"/>
@@ -1307,7 +1366,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="32"/>
     </row>
-    <row r="10" spans="1:17" ht="17.5">
+    <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="9"/>
@@ -1315,13 +1374,13 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="33"/>
+      <c r="H10"/>
       <c r="I10" s="46"/>
       <c r="J10" s="49"/>
       <c r="K10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="17.5">
+    <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
@@ -1329,13 +1388,13 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="33"/>
+      <c r="H11"/>
       <c r="I11" s="46"/>
       <c r="J11" s="49"/>
       <c r="K11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:17" ht="17.5">
+    <row r="12" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="9"/>
@@ -1343,13 +1402,13 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="33"/>
+      <c r="H12"/>
       <c r="I12" s="46"/>
       <c r="J12" s="49"/>
       <c r="K12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="17.5">
+    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="9"/>
@@ -1357,14 +1416,14 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="33"/>
+      <c r="H13"/>
       <c r="I13" s="46"/>
       <c r="J13" s="49"/>
       <c r="K13" s="43"/>
       <c r="L13" s="44"/>
       <c r="M13" s="43"/>
     </row>
-    <row r="14" spans="1:17" s="12" customFormat="1" ht="50" customHeight="1">
+    <row r="14" spans="1:17" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="24"/>
@@ -1383,7 +1442,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="15" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="24"/>
@@ -1402,7 +1461,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17" s="12" customFormat="1" ht="127.5" customHeight="1">
+    <row r="16" spans="1:17" s="12" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="24"/>
@@ -1421,7 +1480,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" s="12" customFormat="1" ht="93" customHeight="1">
+    <row r="17" spans="1:17" s="12" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="24"/>
@@ -1440,7 +1499,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="18" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="17"/>
@@ -1459,7 +1518,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="19" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="28"/>
@@ -1478,7 +1537,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="20" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="28"/>
@@ -1497,7 +1556,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="21" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="28"/>
@@ -1516,7 +1575,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="22" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="28"/>
@@ -1535,7 +1594,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="23" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="28"/>
@@ -1554,7 +1613,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="24" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="28"/>
@@ -1573,7 +1632,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" s="12" customFormat="1" ht="110" customHeight="1">
+    <row r="25" spans="1:17" s="12" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="28"/>
@@ -1592,7 +1651,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" ht="17.5">
+    <row r="26" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="24"/>
@@ -1607,7 +1666,7 @@
       <c r="L26" s="20"/>
       <c r="M26" s="23"/>
     </row>
-    <row r="27" spans="1:17" ht="17.5">
+    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="24"/>
@@ -1622,7 +1681,7 @@
       <c r="L27" s="20"/>
       <c r="M27" s="23"/>
     </row>
-    <row r="28" spans="1:17" ht="17.5">
+    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="24"/>
@@ -1637,7 +1696,7 @@
       <c r="L28" s="20"/>
       <c r="M28" s="23"/>
     </row>
-    <row r="29" spans="1:17" ht="17.5">
+    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="24"/>
@@ -1652,7 +1711,7 @@
       <c r="L29" s="20"/>
       <c r="M29" s="23"/>
     </row>
-    <row r="30" spans="1:17" ht="17.5">
+    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="24"/>
@@ -1667,7 +1726,7 @@
       <c r="L30" s="20"/>
       <c r="M30" s="23"/>
     </row>
-    <row r="31" spans="1:17" ht="17.5">
+    <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="24"/>
@@ -1682,7 +1741,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="23"/>
     </row>
-    <row r="32" spans="1:17" ht="167" customHeight="1">
+    <row r="32" spans="1:17" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="24"/>
@@ -1697,7 +1756,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="27"/>
     </row>
-    <row r="33" spans="1:17" ht="207.5" customHeight="1">
+    <row r="33" spans="1:17" ht="207.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="24"/>
@@ -1712,7 +1771,7 @@
       <c r="L33" s="20"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:17" ht="17.5">
+    <row r="34" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="24"/>
@@ -1727,7 +1786,7 @@
       <c r="L34" s="20"/>
       <c r="M34" s="23"/>
     </row>
-    <row r="35" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="35" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="24"/>
@@ -1746,7 +1805,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
     </row>
-    <row r="36" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="36" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="24"/>
@@ -1765,7 +1824,7 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
     </row>
-    <row r="37" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="37" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="24"/>
@@ -1784,7 +1843,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
     </row>
-    <row r="38" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="38" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="24"/>
@@ -1803,7 +1862,7 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
     </row>
-    <row r="39" spans="1:17" ht="17.5">
+    <row r="39" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="24"/>
@@ -1818,7 +1877,7 @@
       <c r="L39" s="20"/>
       <c r="M39" s="27"/>
     </row>
-    <row r="40" spans="1:17" ht="17.5">
+    <row r="40" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="24"/>
@@ -1833,7 +1892,7 @@
       <c r="L40" s="20"/>
       <c r="M40" s="31"/>
     </row>
-    <row r="41" spans="1:17" ht="17.5">
+    <row r="41" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="24"/>
@@ -1848,7 +1907,7 @@
       <c r="L41" s="20"/>
       <c r="M41" s="31"/>
     </row>
-    <row r="42" spans="1:17" ht="114.5" customHeight="1">
+    <row r="42" spans="1:17" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="28"/>
@@ -1863,7 +1922,7 @@
       <c r="L42" s="30"/>
       <c r="M42" s="31"/>
     </row>
-    <row r="43" spans="1:17" ht="119" customHeight="1">
+    <row r="43" spans="1:17" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="28"/>
@@ -1878,7 +1937,7 @@
       <c r="L43" s="30"/>
       <c r="M43" s="31"/>
     </row>
-    <row r="44" spans="1:17" ht="169.5" customHeight="1">
+    <row r="44" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="36"/>
@@ -1893,7 +1952,7 @@
       <c r="L44" s="20"/>
       <c r="M44" s="23"/>
     </row>
-    <row r="45" spans="1:17" ht="17.5">
+    <row r="45" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="24"/>
@@ -1908,7 +1967,7 @@
       <c r="L45" s="20"/>
       <c r="M45" s="23"/>
     </row>
-    <row r="46" spans="1:17" ht="17.5">
+    <row r="46" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="28"/>
@@ -1923,7 +1982,7 @@
       <c r="L46" s="20"/>
       <c r="M46" s="23"/>
     </row>
-    <row r="47" spans="1:17" ht="17.5">
+    <row r="47" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="28"/>
@@ -1938,7 +1997,7 @@
       <c r="L47" s="20"/>
       <c r="M47" s="23"/>
     </row>
-    <row r="48" spans="1:17" ht="17.5">
+    <row r="48" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="28"/>
@@ -1953,7 +2012,7 @@
       <c r="L48" s="20"/>
       <c r="M48" s="23"/>
     </row>
-    <row r="49" spans="1:17" ht="105" customHeight="1">
+    <row r="49" spans="1:17" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="28"/>
@@ -1968,7 +2027,7 @@
       <c r="L49" s="20"/>
       <c r="M49" s="23"/>
     </row>
-    <row r="50" spans="1:17" ht="17.5">
+    <row r="50" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="24"/>
@@ -1983,7 +2042,7 @@
       <c r="L50" s="20"/>
       <c r="M50" s="23"/>
     </row>
-    <row r="51" spans="1:17" ht="116.5" customHeight="1">
+    <row r="51" spans="1:17" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="24"/>
@@ -1998,7 +2057,7 @@
       <c r="L51" s="20"/>
       <c r="M51" s="23"/>
     </row>
-    <row r="52" spans="1:17" ht="17.5">
+    <row r="52" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="24"/>
@@ -2013,7 +2072,7 @@
       <c r="L52" s="20"/>
       <c r="M52" s="23"/>
     </row>
-    <row r="53" spans="1:17" ht="17.5">
+    <row r="53" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="24"/>
@@ -2028,7 +2087,7 @@
       <c r="L53" s="20"/>
       <c r="M53" s="23"/>
     </row>
-    <row r="54" spans="1:17" ht="17.5">
+    <row r="54" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="24"/>
@@ -2043,7 +2102,7 @@
       <c r="L54" s="20"/>
       <c r="M54" s="23"/>
     </row>
-    <row r="55" spans="1:17" ht="117.5" customHeight="1">
+    <row r="55" spans="1:17" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="24"/>
@@ -2058,7 +2117,7 @@
       <c r="L55" s="20"/>
       <c r="M55" s="23"/>
     </row>
-    <row r="56" spans="1:17" ht="17.5">
+    <row r="56" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="24"/>
@@ -2073,7 +2132,7 @@
       <c r="L56" s="20"/>
       <c r="M56" s="23"/>
     </row>
-    <row r="57" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="57" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="24"/>
@@ -2092,7 +2151,7 @@
       <c r="P57" s="13"/>
       <c r="Q57" s="13"/>
     </row>
-    <row r="58" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="58" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="24"/>
@@ -2111,7 +2170,7 @@
       <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="59" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="24"/>
@@ -2130,7 +2189,7 @@
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
     </row>
-    <row r="60" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="60" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="24"/>
@@ -2149,7 +2208,7 @@
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
     </row>
-    <row r="61" spans="1:17" s="12" customFormat="1" ht="125" customHeight="1">
+    <row r="61" spans="1:17" s="12" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="24"/>
@@ -2168,7 +2227,7 @@
       <c r="P61" s="13"/>
       <c r="Q61" s="13"/>
     </row>
-    <row r="62" spans="1:17" s="12" customFormat="1" ht="166.5" customHeight="1">
+    <row r="62" spans="1:17" s="12" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="24"/>
@@ -2187,7 +2246,7 @@
       <c r="P62" s="13"/>
       <c r="Q62" s="13"/>
     </row>
-    <row r="63" spans="1:17" s="12" customFormat="1" ht="110.5" customHeight="1">
+    <row r="63" spans="1:17" s="12" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="24"/>
@@ -2206,7 +2265,7 @@
       <c r="P63" s="13"/>
       <c r="Q63" s="13"/>
     </row>
-    <row r="64" spans="1:17" s="12" customFormat="1" ht="131" customHeight="1">
+    <row r="64" spans="1:17" s="12" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="28"/>
@@ -2225,7 +2284,7 @@
       <c r="P64" s="13"/>
       <c r="Q64" s="13"/>
     </row>
-    <row r="65" spans="1:17" s="12" customFormat="1" ht="141" customHeight="1">
+    <row r="65" spans="1:17" s="12" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="28"/>
@@ -2244,7 +2303,7 @@
       <c r="P65" s="13"/>
       <c r="Q65" s="13"/>
     </row>
-    <row r="66" spans="1:17" s="12" customFormat="1" ht="118.5" customHeight="1">
+    <row r="66" spans="1:17" s="12" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="28"/>
@@ -2263,7 +2322,7 @@
       <c r="P66" s="13"/>
       <c r="Q66" s="13"/>
     </row>
-    <row r="67" spans="1:17" s="12" customFormat="1" ht="123" customHeight="1">
+    <row r="67" spans="1:17" s="12" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="28"/>
@@ -2282,7 +2341,7 @@
       <c r="P67" s="13"/>
       <c r="Q67" s="13"/>
     </row>
-    <row r="68" spans="1:17" s="12" customFormat="1" ht="148.5" customHeight="1">
+    <row r="68" spans="1:17" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="28"/>
@@ -2301,7 +2360,7 @@
       <c r="P68" s="13"/>
       <c r="Q68" s="13"/>
     </row>
-    <row r="69" spans="1:17" s="12" customFormat="1" ht="191.5" customHeight="1">
+    <row r="69" spans="1:17" s="12" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="28"/>
@@ -2320,7 +2379,7 @@
       <c r="P69" s="13"/>
       <c r="Q69" s="13"/>
     </row>
-    <row r="70" spans="1:17" s="12" customFormat="1" ht="128" customHeight="1">
+    <row r="70" spans="1:17" s="12" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="28"/>
@@ -2339,7 +2398,7 @@
       <c r="P70" s="13"/>
       <c r="Q70" s="13"/>
     </row>
-    <row r="71" spans="1:17" s="12" customFormat="1" ht="96.5" customHeight="1">
+    <row r="71" spans="1:17" s="12" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="28"/>
@@ -2358,7 +2417,7 @@
       <c r="P71" s="13"/>
       <c r="Q71" s="13"/>
     </row>
-    <row r="72" spans="1:17" s="12" customFormat="1" ht="100.5" customHeight="1">
+    <row r="72" spans="1:17" s="12" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="28"/>
@@ -2377,7 +2436,7 @@
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
     </row>
-    <row r="73" spans="1:17" s="12" customFormat="1" ht="156.5" customHeight="1">
+    <row r="73" spans="1:17" s="12" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="28"/>
@@ -2396,7 +2455,7 @@
       <c r="P73" s="13"/>
       <c r="Q73" s="13"/>
     </row>
-    <row r="74" spans="1:17" s="12" customFormat="1" ht="111" customHeight="1">
+    <row r="74" spans="1:17" s="12" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="28"/>
@@ -2415,7 +2474,7 @@
       <c r="P74" s="13"/>
       <c r="Q74" s="13"/>
     </row>
-    <row r="75" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="75" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="28"/>
@@ -2434,7 +2493,7 @@
       <c r="P75" s="13"/>
       <c r="Q75" s="13"/>
     </row>
-    <row r="76" spans="1:17" s="12" customFormat="1" ht="161.5" customHeight="1">
+    <row r="76" spans="1:17" s="12" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="28"/>
@@ -2453,7 +2512,7 @@
       <c r="P76" s="13"/>
       <c r="Q76" s="13"/>
     </row>
-    <row r="77" spans="1:17" s="12" customFormat="1" ht="154.5" customHeight="1">
+    <row r="77" spans="1:17" s="12" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="28"/>
@@ -2472,7 +2531,7 @@
       <c r="P77" s="13"/>
       <c r="Q77" s="13"/>
     </row>
-    <row r="78" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="78" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="28"/>
@@ -2491,7 +2550,7 @@
       <c r="P78" s="13"/>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="79" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="28"/>
@@ -2510,7 +2569,7 @@
       <c r="P79" s="13"/>
       <c r="Q79" s="13"/>
     </row>
-    <row r="80" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="80" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="28"/>
@@ -2529,7 +2588,7 @@
       <c r="P80" s="13"/>
       <c r="Q80" s="13"/>
     </row>
-    <row r="81" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="81" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="28"/>
@@ -2548,7 +2607,7 @@
       <c r="P81" s="13"/>
       <c r="Q81" s="13"/>
     </row>
-    <row r="82" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="82" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="28"/>
@@ -2567,7 +2626,7 @@
       <c r="P82" s="13"/>
       <c r="Q82" s="13"/>
     </row>
-    <row r="83" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="83" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="24"/>
@@ -2586,7 +2645,7 @@
       <c r="P83" s="13"/>
       <c r="Q83" s="13"/>
     </row>
-    <row r="84" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="84" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="24"/>
@@ -2605,7 +2664,7 @@
       <c r="P84" s="13"/>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="85" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="24"/>
@@ -2624,7 +2683,7 @@
       <c r="P85" s="13"/>
       <c r="Q85" s="13"/>
     </row>
-    <row r="86" spans="1:17" s="12" customFormat="1" ht="204" customHeight="1">
+    <row r="86" spans="1:17" s="12" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="24"/>
@@ -2643,7 +2702,7 @@
       <c r="P86" s="13"/>
       <c r="Q86" s="13"/>
     </row>
-    <row r="87" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="87" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="24"/>
@@ -2662,7 +2721,7 @@
       <c r="P87" s="13"/>
       <c r="Q87" s="13"/>
     </row>
-    <row r="88" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="88" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="24"/>
@@ -2681,7 +2740,7 @@
       <c r="P88" s="13"/>
       <c r="Q88" s="13"/>
     </row>
-    <row r="89" spans="1:17" ht="17.5">
+    <row r="89" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="24"/>
@@ -2696,7 +2755,7 @@
       <c r="L89" s="20"/>
       <c r="M89" s="23"/>
     </row>
-    <row r="90" spans="1:17" ht="158.5" customHeight="1">
+    <row r="90" spans="1:17" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="24"/>
@@ -2711,7 +2770,7 @@
       <c r="L90" s="20"/>
       <c r="M90" s="23"/>
     </row>
-    <row r="91" spans="1:17" ht="17.5">
+    <row r="91" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="24"/>
@@ -2726,7 +2785,7 @@
       <c r="L91" s="20"/>
       <c r="M91" s="27"/>
     </row>
-    <row r="92" spans="1:17" ht="91.75" customHeight="1">
+    <row r="92" spans="1:17" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="24"/>
@@ -2741,7 +2800,7 @@
       <c r="L92" s="20"/>
       <c r="M92" s="27"/>
     </row>
-    <row r="93" spans="1:17" ht="165" customHeight="1">
+    <row r="93" spans="1:17" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="24"/>
@@ -2756,7 +2815,7 @@
       <c r="L93" s="37"/>
       <c r="M93" s="38"/>
     </row>
-    <row r="94" spans="1:17" ht="108" customHeight="1">
+    <row r="94" spans="1:17" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="24"/>
@@ -2771,7 +2830,7 @@
       <c r="L94" s="20"/>
       <c r="M94" s="31"/>
     </row>
-    <row r="95" spans="1:17" ht="101" customHeight="1">
+    <row r="95" spans="1:17" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="24"/>
@@ -2786,7 +2845,7 @@
       <c r="L95" s="20"/>
       <c r="M95" s="31"/>
     </row>
-    <row r="96" spans="1:17" ht="88" customHeight="1">
+    <row r="96" spans="1:17" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="28"/>
@@ -2801,7 +2860,7 @@
       <c r="L96" s="30"/>
       <c r="M96" s="31"/>
     </row>
-    <row r="97" spans="1:13" ht="98" customHeight="1">
+    <row r="97" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="28"/>
@@ -2816,7 +2875,7 @@
       <c r="L97" s="30"/>
       <c r="M97" s="31"/>
     </row>
-    <row r="98" spans="1:13" ht="156" customHeight="1">
+    <row r="98" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="28"/>
@@ -2831,7 +2890,7 @@
       <c r="L98" s="20"/>
       <c r="M98" s="23"/>
     </row>
-    <row r="99" spans="1:13" ht="172.5" customHeight="1">
+    <row r="99" spans="1:13" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="28"/>
@@ -2846,7 +2905,7 @@
       <c r="L99" s="20"/>
       <c r="M99" s="23"/>
     </row>
-    <row r="100" spans="1:13" ht="79" customHeight="1">
+    <row r="100" spans="1:13" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="28"/>
@@ -2861,7 +2920,7 @@
       <c r="L100" s="20"/>
       <c r="M100" s="23"/>
     </row>
-    <row r="101" spans="1:13" ht="102.5" customHeight="1">
+    <row r="101" spans="1:13" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="28"/>
@@ -2876,7 +2935,7 @@
       <c r="L101" s="20"/>
       <c r="M101" s="23"/>
     </row>
-    <row r="102" spans="1:13" ht="51" customHeight="1">
+    <row r="102" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="28"/>
@@ -2891,7 +2950,7 @@
       <c r="L102" s="20"/>
       <c r="M102" s="23"/>
     </row>
-    <row r="103" spans="1:13" ht="121.25" customHeight="1">
+    <row r="103" spans="1:13" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="28"/>
@@ -2906,7 +2965,7 @@
       <c r="L103" s="20"/>
       <c r="M103" s="23"/>
     </row>
-    <row r="104" spans="1:13" ht="49.5" customHeight="1">
+    <row r="104" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="28"/>
@@ -2921,7 +2980,7 @@
       <c r="L104" s="20"/>
       <c r="M104" s="23"/>
     </row>
-    <row r="105" spans="1:13" ht="56.4" customHeight="1">
+    <row r="105" spans="1:13" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="28"/>
@@ -2936,7 +2995,7 @@
       <c r="L105" s="20"/>
       <c r="M105" s="23"/>
     </row>
-    <row r="106" spans="1:13" ht="104" customHeight="1">
+    <row r="106" spans="1:13" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="28"/>
@@ -2951,7 +3010,7 @@
       <c r="L106" s="20"/>
       <c r="M106" s="23"/>
     </row>
-    <row r="107" spans="1:13" ht="95.4" customHeight="1">
+    <row r="107" spans="1:13" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="28"/>
@@ -2966,7 +3025,7 @@
       <c r="L107" s="20"/>
       <c r="M107" s="23"/>
     </row>
-    <row r="108" spans="1:13" ht="78" customHeight="1">
+    <row r="108" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="28"/>
@@ -2981,7 +3040,7 @@
       <c r="L108" s="20"/>
       <c r="M108" s="23"/>
     </row>
-    <row r="109" spans="1:13" ht="17.5">
+    <row r="109" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="28"/>
@@ -2996,7 +3055,7 @@
       <c r="L109" s="20"/>
       <c r="M109" s="23"/>
     </row>
-    <row r="110" spans="1:13" ht="17.5">
+    <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="28"/>
@@ -3011,7 +3070,7 @@
       <c r="L110" s="20"/>
       <c r="M110" s="23"/>
     </row>
-    <row r="111" spans="1:13" ht="17.5">
+    <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="28"/>
@@ -3026,7 +3085,7 @@
       <c r="L111" s="20"/>
       <c r="M111" s="23"/>
     </row>
-    <row r="112" spans="1:13" ht="17.5">
+    <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="28"/>
@@ -3041,7 +3100,7 @@
       <c r="L112" s="20"/>
       <c r="M112" s="23"/>
     </row>
-    <row r="113" spans="1:13" ht="17.5">
+    <row r="113" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="28"/>
@@ -3056,7 +3115,7 @@
       <c r="L113" s="20"/>
       <c r="M113" s="23"/>
     </row>
-    <row r="114" spans="1:13" ht="17.5">
+    <row r="114" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="28"/>
@@ -3071,7 +3130,7 @@
       <c r="L114" s="20"/>
       <c r="M114" s="23"/>
     </row>
-    <row r="115" spans="1:13" ht="17.5">
+    <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="28"/>
@@ -3086,7 +3145,7 @@
       <c r="L115" s="20"/>
       <c r="M115" s="23"/>
     </row>
-    <row r="116" spans="1:13" ht="17.5">
+    <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="28"/>
@@ -3101,7 +3160,7 @@
       <c r="L116" s="20"/>
       <c r="M116" s="23"/>
     </row>
-    <row r="117" spans="1:13" ht="108" customHeight="1">
+    <row r="117" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="28"/>
@@ -3116,7 +3175,7 @@
       <c r="L117" s="20"/>
       <c r="M117" s="23"/>
     </row>
-    <row r="118" spans="1:13" ht="17.5">
+    <row r="118" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="28"/>
@@ -3131,7 +3190,7 @@
       <c r="L118" s="20"/>
       <c r="M118" s="23"/>
     </row>
-    <row r="119" spans="1:13" ht="17.5">
+    <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="28"/>
@@ -3146,7 +3205,7 @@
       <c r="L119" s="20"/>
       <c r="M119" s="23"/>
     </row>
-    <row r="120" spans="1:13" ht="70.75" customHeight="1">
+    <row r="120" spans="1:13" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="28"/>
@@ -3161,7 +3220,7 @@
       <c r="L120" s="20"/>
       <c r="M120" s="23"/>
     </row>
-    <row r="121" spans="1:13" ht="17.5">
+    <row r="121" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="28"/>
@@ -3176,7 +3235,7 @@
       <c r="L121" s="20"/>
       <c r="M121" s="23"/>
     </row>
-    <row r="122" spans="1:13" ht="17.5">
+    <row r="122" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="28"/>
@@ -3191,7 +3250,7 @@
       <c r="L122" s="20"/>
       <c r="M122" s="23"/>
     </row>
-    <row r="123" spans="1:13" ht="17.5">
+    <row r="123" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="28"/>
@@ -3206,7 +3265,7 @@
       <c r="L123" s="20"/>
       <c r="M123" s="23"/>
     </row>
-    <row r="124" spans="1:13" ht="17.5">
+    <row r="124" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="28"/>
@@ -3221,7 +3280,7 @@
       <c r="L124" s="20"/>
       <c r="M124" s="23"/>
     </row>
-    <row r="125" spans="1:13" ht="17.5">
+    <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="28"/>
@@ -3236,7 +3295,7 @@
       <c r="L125" s="20"/>
       <c r="M125" s="23"/>
     </row>
-    <row r="126" spans="1:13" ht="17.5">
+    <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="28"/>
@@ -3251,7 +3310,7 @@
       <c r="L126" s="20"/>
       <c r="M126" s="23"/>
     </row>
-    <row r="127" spans="1:13" ht="17.5">
+    <row r="127" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="24"/>
@@ -3266,7 +3325,7 @@
       <c r="L127" s="20"/>
       <c r="M127" s="31"/>
     </row>
-    <row r="128" spans="1:13" ht="17.5">
+    <row r="128" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="28"/>
@@ -3281,7 +3340,7 @@
       <c r="L128" s="30"/>
       <c r="M128" s="31"/>
     </row>
-    <row r="129" spans="1:17" ht="17.5">
+    <row r="129" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="28"/>
@@ -3296,7 +3355,7 @@
       <c r="L129" s="30"/>
       <c r="M129" s="31"/>
     </row>
-    <row r="130" spans="1:17" ht="17.5">
+    <row r="130" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="28"/>
@@ -3311,7 +3370,7 @@
       <c r="L130" s="30"/>
       <c r="M130" s="31"/>
     </row>
-    <row r="131" spans="1:17" ht="17.5">
+    <row r="131" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="28"/>
@@ -3326,7 +3385,7 @@
       <c r="L131" s="30"/>
       <c r="M131" s="31"/>
     </row>
-    <row r="132" spans="1:17" ht="17.5">
+    <row r="132" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="28"/>
@@ -3341,7 +3400,7 @@
       <c r="L132" s="30"/>
       <c r="M132" s="31"/>
     </row>
-    <row r="133" spans="1:17" ht="88" customHeight="1">
+    <row r="133" spans="1:17" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="28"/>
@@ -3356,7 +3415,7 @@
       <c r="L133" s="30"/>
       <c r="M133" s="31"/>
     </row>
-    <row r="134" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="134" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="28"/>
@@ -3375,7 +3434,7 @@
       <c r="P134" s="13"/>
       <c r="Q134" s="13"/>
     </row>
-    <row r="135" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="135" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="28"/>
@@ -3394,7 +3453,7 @@
       <c r="P135" s="13"/>
       <c r="Q135" s="13"/>
     </row>
-    <row r="136" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="136" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="28"/>
@@ -3413,7 +3472,7 @@
       <c r="P136" s="13"/>
       <c r="Q136" s="13"/>
     </row>
-    <row r="137" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="137" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="24"/>
@@ -3432,7 +3491,7 @@
       <c r="P137" s="13"/>
       <c r="Q137" s="13"/>
     </row>
-    <row r="138" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="138" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="24"/>
@@ -3451,7 +3510,7 @@
       <c r="P138" s="13"/>
       <c r="Q138" s="13"/>
     </row>
-    <row r="139" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="139" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="24"/>
@@ -3470,7 +3529,7 @@
       <c r="P139" s="13"/>
       <c r="Q139" s="13"/>
     </row>
-    <row r="140" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="140" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="24"/>
@@ -3489,7 +3548,7 @@
       <c r="P140" s="13"/>
       <c r="Q140" s="13"/>
     </row>
-    <row r="141" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="141" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="28"/>
@@ -3508,7 +3567,7 @@
       <c r="P141" s="13"/>
       <c r="Q141" s="13"/>
     </row>
-    <row r="142" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="142" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="24"/>
@@ -3527,7 +3586,7 @@
       <c r="P142" s="13"/>
       <c r="Q142" s="13"/>
     </row>
-    <row r="143" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="143" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="36"/>
@@ -3546,7 +3605,7 @@
       <c r="P143" s="13"/>
       <c r="Q143" s="13"/>
     </row>
-    <row r="144" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="144" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="24"/>
@@ -3565,7 +3624,7 @@
       <c r="P144" s="13"/>
       <c r="Q144" s="13"/>
     </row>
-    <row r="145" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="145" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="24"/>
@@ -3584,7 +3643,7 @@
       <c r="P145" s="13"/>
       <c r="Q145" s="13"/>
     </row>
-    <row r="146" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="146" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="24"/>
@@ -3603,7 +3662,7 @@
       <c r="P146" s="13"/>
       <c r="Q146" s="13"/>
     </row>
-    <row r="147" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="147" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="24"/>
@@ -3622,7 +3681,7 @@
       <c r="P147" s="13"/>
       <c r="Q147" s="13"/>
     </row>
-    <row r="148" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="148" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="24"/>
@@ -3641,7 +3700,7 @@
       <c r="P148" s="13"/>
       <c r="Q148" s="13"/>
     </row>
-    <row r="149" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="149" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="24"/>
@@ -3660,7 +3719,7 @@
       <c r="P149" s="13"/>
       <c r="Q149" s="13"/>
     </row>
-    <row r="150" spans="1:17" s="12" customFormat="1" ht="145.25" customHeight="1">
+    <row r="150" spans="1:17" s="12" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="24"/>
@@ -3679,7 +3738,7 @@
       <c r="P150" s="13"/>
       <c r="Q150" s="13"/>
     </row>
-    <row r="151" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="151" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="24"/>
@@ -3698,7 +3757,7 @@
       <c r="P151" s="13"/>
       <c r="Q151" s="13"/>
     </row>
-    <row r="152" spans="1:17" s="12" customFormat="1" ht="112.25" customHeight="1">
+    <row r="152" spans="1:17" s="12" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="24"/>
@@ -3717,7 +3776,7 @@
       <c r="P152" s="13"/>
       <c r="Q152" s="13"/>
     </row>
-    <row r="153" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="153" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="24"/>
@@ -3736,7 +3795,7 @@
       <c r="P153" s="13"/>
       <c r="Q153" s="13"/>
     </row>
-    <row r="154" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="154" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="24"/>
@@ -3755,7 +3814,7 @@
       <c r="P154" s="13"/>
       <c r="Q154" s="13"/>
     </row>
-    <row r="155" spans="1:17" s="12" customFormat="1" ht="132.65" customHeight="1">
+    <row r="155" spans="1:17" s="12" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="24"/>
@@ -3774,7 +3833,7 @@
       <c r="P155" s="13"/>
       <c r="Q155" s="13"/>
     </row>
-    <row r="156" spans="1:17" s="12" customFormat="1" ht="120.65" customHeight="1">
+    <row r="156" spans="1:17" s="12" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="24"/>
@@ -3793,7 +3852,7 @@
       <c r="P156" s="13"/>
       <c r="Q156" s="13"/>
     </row>
-    <row r="157" spans="1:17" s="12" customFormat="1" ht="17.5">
+    <row r="157" spans="1:17" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="24"/>
@@ -3812,7 +3871,7 @@
       <c r="P157" s="13"/>
       <c r="Q157" s="13"/>
     </row>
-    <row r="158" spans="1:17" s="12" customFormat="1" ht="121.25" customHeight="1">
+    <row r="158" spans="1:17" s="12" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="24"/>
@@ -3831,7 +3890,7 @@
       <c r="P158" s="13"/>
       <c r="Q158" s="13"/>
     </row>
-    <row r="159" spans="1:17" s="12" customFormat="1" ht="82.75" customHeight="1">
+    <row r="159" spans="1:17" s="12" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="24"/>
@@ -3850,7 +3909,7 @@
       <c r="P159" s="13"/>
       <c r="Q159" s="13"/>
     </row>
-    <row r="160" spans="1:17" s="12" customFormat="1" ht="111" customHeight="1">
+    <row r="160" spans="1:17" s="12" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="28"/>
@@ -3869,7 +3928,7 @@
       <c r="P160" s="13"/>
       <c r="Q160" s="13"/>
     </row>
-    <row r="161" spans="1:17" s="12" customFormat="1" ht="91.25" customHeight="1">
+    <row r="161" spans="1:17" s="12" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="28"/>
@@ -3888,7 +3947,7 @@
       <c r="P161" s="13"/>
       <c r="Q161" s="13"/>
     </row>
-    <row r="162" spans="1:17" s="12" customFormat="1" ht="63.65" customHeight="1">
+    <row r="162" spans="1:17" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="28"/>
@@ -3907,7 +3966,7 @@
       <c r="P162" s="13"/>
       <c r="Q162" s="13"/>
     </row>
-    <row r="163" spans="1:17" s="12" customFormat="1" ht="79.75" customHeight="1">
+    <row r="163" spans="1:17" s="12" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="28"/>
@@ -3926,7 +3985,7 @@
       <c r="P163" s="13"/>
       <c r="Q163" s="13"/>
     </row>
-    <row r="164" spans="1:17" ht="45.65" customHeight="1">
+    <row r="164" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="28"/>
@@ -3941,7 +4000,7 @@
       <c r="L164" s="25"/>
       <c r="M164" s="27"/>
     </row>
-    <row r="165" spans="1:17" ht="82.75" customHeight="1">
+    <row r="165" spans="1:17" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="28"/>
@@ -3956,7 +4015,7 @@
       <c r="L165" s="25"/>
       <c r="M165" s="27"/>
     </row>
-    <row r="166" spans="1:17" ht="17.5">
+    <row r="166" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="24"/>
@@ -3971,7 +4030,7 @@
       <c r="L166" s="25"/>
       <c r="M166" s="27"/>
     </row>
-    <row r="167" spans="1:17" ht="100.25" customHeight="1">
+    <row r="167" spans="1:17" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="24"/>
@@ -3986,7 +4045,7 @@
       <c r="L167" s="25"/>
       <c r="M167" s="27"/>
     </row>
-    <row r="168" spans="1:17" ht="103.25" customHeight="1">
+    <row r="168" spans="1:17" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="24"/>
@@ -4001,7 +4060,7 @@
       <c r="L168" s="25"/>
       <c r="M168" s="27"/>
     </row>
-    <row r="169" spans="1:17" ht="89.4" customHeight="1">
+    <row r="169" spans="1:17" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="28"/>
@@ -4016,7 +4075,7 @@
       <c r="L169" s="20"/>
       <c r="M169" s="23"/>
     </row>
-    <row r="170" spans="1:17" ht="77.400000000000006" customHeight="1">
+    <row r="170" spans="1:17" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="28"/>
@@ -4031,7 +4090,7 @@
       <c r="L170" s="20"/>
       <c r="M170" s="23"/>
     </row>
-    <row r="171" spans="1:17" ht="73.25" customHeight="1">
+    <row r="171" spans="1:17" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="17"/>
@@ -4048,7 +4107,7 @@
       <c r="N171" s="42"/>
       <c r="O171" s="41"/>
     </row>
-    <row r="172" spans="1:17" ht="102.5" customHeight="1">
+    <row r="172" spans="1:17" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="17"/>
@@ -4065,7 +4124,7 @@
       <c r="N172" s="42"/>
       <c r="O172" s="41"/>
     </row>
-    <row r="173" spans="1:17" ht="73.25" customHeight="1">
+    <row r="173" spans="1:17" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="17"/>
@@ -4080,7 +4139,7 @@
       <c r="L173" s="20"/>
       <c r="M173" s="23"/>
     </row>
-    <row r="174" spans="1:17" ht="67.75" customHeight="1">
+    <row r="174" spans="1:17" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="24"/>
@@ -4097,7 +4156,7 @@
       <c r="N174" s="42"/>
       <c r="O174" s="41"/>
     </row>
-    <row r="175" spans="1:17" ht="71.400000000000006" customHeight="1">
+    <row r="175" spans="1:17" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="24"/>
@@ -4114,7 +4173,7 @@
       <c r="N175" s="42"/>
       <c r="O175" s="41"/>
     </row>
-    <row r="176" spans="1:17" ht="69.650000000000006" customHeight="1">
+    <row r="176" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="24"/>
@@ -4131,7 +4190,7 @@
       <c r="N176" s="42"/>
       <c r="O176" s="41"/>
     </row>
-    <row r="177" spans="1:15" ht="43.25" customHeight="1">
+    <row r="177" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="24"/>
@@ -4148,7 +4207,7 @@
       <c r="N177" s="42"/>
       <c r="O177" s="41"/>
     </row>
-    <row r="178" spans="1:15" ht="53.4" customHeight="1">
+    <row r="178" spans="1:15" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="24"/>
@@ -4165,7 +4224,7 @@
       <c r="N178" s="33"/>
       <c r="O178" s="41"/>
     </row>
-    <row r="179" spans="1:15" ht="79.25" customHeight="1">
+    <row r="179" spans="1:15" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="24"/>
@@ -4182,7 +4241,7 @@
       <c r="N179" s="33"/>
       <c r="O179" s="41"/>
     </row>
-    <row r="180" spans="1:15" ht="120.65" customHeight="1">
+    <row r="180" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="24"/>
@@ -4199,7 +4258,7 @@
       <c r="N180" s="33"/>
       <c r="O180" s="41"/>
     </row>
-    <row r="181" spans="1:15" ht="94.75" customHeight="1">
+    <row r="181" spans="1:15" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="28"/>
@@ -4214,7 +4273,7 @@
       <c r="L181" s="20"/>
       <c r="M181" s="23"/>
     </row>
-    <row r="182" spans="1:15" ht="67.75" customHeight="1">
+    <row r="182" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="28"/>
@@ -4229,7 +4288,7 @@
       <c r="L182" s="20"/>
       <c r="M182" s="23"/>
     </row>
-    <row r="183" spans="1:15" ht="17.5">
+    <row r="183" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
       <c r="C183" s="28"/>
@@ -4244,7 +4303,7 @@
       <c r="L183" s="20"/>
       <c r="M183" s="23"/>
     </row>
-    <row r="184" spans="1:15" ht="17.5">
+    <row r="184" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="28"/>
@@ -4259,7 +4318,7 @@
       <c r="L184" s="20"/>
       <c r="M184" s="23"/>
     </row>
-    <row r="185" spans="1:15" ht="17.5">
+    <row r="185" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="28"/>
@@ -4274,7 +4333,7 @@
       <c r="L185" s="20"/>
       <c r="M185" s="23"/>
     </row>
-    <row r="186" spans="1:15" ht="17.5">
+    <row r="186" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
       <c r="C186" s="28"/>
@@ -4289,7 +4348,7 @@
       <c r="L186" s="20"/>
       <c r="M186" s="23"/>
     </row>
-    <row r="187" spans="1:15" ht="17.5">
+    <row r="187" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
       <c r="C187" s="28"/>
@@ -4305,13 +4364,9 @@
       <c r="M187" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H3:H13" r:id="rId1" display="https://user-center-thu.tunaikita.id/cashAccount"/>
-    <hyperlink ref="H2:H7" r:id="rId2" display="https://user-center-thu.tunaikita.id/cashAccount"/>
-  </hyperlinks>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>